--- a/data/phase3-results.xlsx
+++ b/data/phase3-results.xlsx
@@ -661,10 +661,10 @@
     <t>99-Foundations-of-Software-Science-and-Computational-Structures</t>
   </si>
   <si>
-    <t>AB</t>
+    <t>A*</t>
   </si>
   <si>
-    <t>AA</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1011,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CE14" sqref="CE14"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1289,7 @@
         <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2">
         <v>114</v>
@@ -1525,7 +1525,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3">
         <v>58</v>
@@ -1761,7 +1761,7 @@
         <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4">
         <v>98</v>
@@ -1997,7 +1997,7 @@
         <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5">
         <v>42</v>
@@ -2233,7 +2233,7 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6">
         <v>45</v>
@@ -2469,7 +2469,7 @@
         <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7">
         <v>45</v>
@@ -2705,7 +2705,7 @@
         <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8">
         <v>59</v>
@@ -2941,7 +2941,7 @@
         <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9">
         <v>28</v>
@@ -3177,7 +3177,7 @@
         <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10">
         <v>52</v>
@@ -3413,7 +3413,7 @@
         <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11">
         <v>52</v>
@@ -3649,7 +3649,7 @@
         <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12">
         <v>44</v>
@@ -3885,7 +3885,7 @@
         <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13">
         <v>49</v>
@@ -4121,7 +4121,7 @@
         <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14">
         <v>27</v>
@@ -4357,7 +4357,7 @@
         <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15">
         <v>58</v>
@@ -4593,7 +4593,7 @@
         <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16">
         <v>36</v>
@@ -4829,7 +4829,7 @@
         <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17">
         <v>48</v>
@@ -5065,7 +5065,7 @@
         <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18">
         <v>19</v>
@@ -5301,7 +5301,7 @@
         <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C19">
         <v>26</v>
@@ -5537,7 +5537,7 @@
         <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20">
         <v>82</v>
@@ -5773,7 +5773,7 @@
         <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21">
         <v>82</v>
@@ -6009,7 +6009,7 @@
         <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -6245,7 +6245,7 @@
         <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C23">
         <v>29</v>
@@ -6481,7 +6481,7 @@
         <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C24">
         <v>29</v>
@@ -6717,7 +6717,7 @@
         <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -6953,7 +6953,7 @@
         <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C26">
         <v>31</v>
@@ -7189,7 +7189,7 @@
         <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C27">
         <v>31</v>
@@ -7425,7 +7425,7 @@
         <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C28">
         <v>52</v>
@@ -7661,7 +7661,7 @@
         <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C29">
         <v>53</v>
@@ -7897,7 +7897,7 @@
         <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C30">
         <v>27</v>
@@ -8133,7 +8133,7 @@
         <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C31">
         <v>79</v>
@@ -8369,7 +8369,7 @@
         <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C32">
         <v>18</v>
@@ -8605,7 +8605,7 @@
         <v>146</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -8841,7 +8841,7 @@
         <v>149</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C34">
         <v>34</v>
@@ -9077,7 +9077,7 @@
         <v>150</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C35">
         <v>22</v>
@@ -9313,7 +9313,7 @@
         <v>162</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C36">
         <v>67</v>
@@ -9549,7 +9549,7 @@
         <v>167</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C37">
         <v>18</v>
@@ -9785,7 +9785,7 @@
         <v>174</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C38">
         <v>38</v>
@@ -10021,7 +10021,7 @@
         <v>176</v>
       </c>
       <c r="B39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C39">
         <v>29</v>
@@ -10257,7 +10257,7 @@
         <v>177</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C40">
         <v>27</v>
@@ -10493,7 +10493,7 @@
         <v>180</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C41">
         <v>44</v>
@@ -10729,7 +10729,7 @@
         <v>181</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C42">
         <v>29</v>
